--- a/TestLog/Testlog.xlsx
+++ b/TestLog/Testlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huy/Documents/ProjectCMS/ProjectCMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huy/Documents/ProjectCMS/ProjectCMS/TestLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -620,9 +620,6 @@
     <t>have status</t>
   </si>
   <si>
-    <t xml:space="preserve">10.Coordinator </t>
-  </si>
-  <si>
     <t>Adding Student in class</t>
   </si>
   <si>
@@ -792,6 +789,9 @@
   </si>
   <si>
     <t>"CMS sadsa@#@"</t>
+  </si>
+  <si>
+    <t>10. Coordinator task</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I313" sqref="I313"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2895,16 +2895,16 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C238" t="s">
         <v>198</v>
       </c>
-      <c r="C238" t="s">
+      <c r="F238" t="s">
         <v>199</v>
       </c>
-      <c r="F238" t="s">
-        <v>200</v>
-      </c>
       <c r="G238" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I238" t="s">
         <v>20</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F239" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G239" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I239" t="s">
         <v>20</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F240" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G240" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I240" t="s">
         <v>20</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="241" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F241" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G241" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I241" t="s">
         <v>20</v>
@@ -2951,10 +2951,10 @@
     </row>
     <row r="242" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F242" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I242" t="s">
         <v>20</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="243" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F243" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G243" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I243" t="s">
         <v>20</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="244" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F244" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G244" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I244" t="s">
         <v>20</v>
@@ -2984,10 +2984,10 @@
     </row>
     <row r="245" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F245" t="s">
+        <v>206</v>
+      </c>
+      <c r="G245" t="s">
         <v>207</v>
-      </c>
-      <c r="G245" t="s">
-        <v>208</v>
       </c>
       <c r="I245" t="s">
         <v>20</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="247" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F247" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G247" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I247" t="s">
         <v>19</v>
@@ -3012,71 +3012,71 @@
     </row>
     <row r="248" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F248" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G248" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="249" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F249" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G249" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="250" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F250" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G250" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="251" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F251" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G251" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="252" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F252" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F253" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G253" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="254" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F254" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="256" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C256" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="257" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F257" t="s">
+        <v>216</v>
+      </c>
+      <c r="I257" t="s">
         <v>217</v>
-      </c>
-      <c r="I257" t="s">
-        <v>218</v>
       </c>
       <c r="N257" t="s">
         <v>25</v>
@@ -3087,13 +3087,13 @@
     </row>
     <row r="259" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C259" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F259" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G259" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I259" t="s">
         <v>20</v>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="260" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F260" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G260" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I260" t="s">
         <v>20</v>
@@ -3118,10 +3118,10 @@
     </row>
     <row r="261" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F261" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G261" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I261" t="s">
         <v>20</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="262" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F262" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G262" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I262" t="s">
         <v>20</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="263" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F263" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G263" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I263" t="s">
         <v>20</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="264" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F264" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G264" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I264" t="s">
         <v>20</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="265" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F265" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G265" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I265" t="s">
         <v>20</v>
@@ -3173,21 +3173,21 @@
     </row>
     <row r="266" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F266" t="s">
+        <v>206</v>
+      </c>
+      <c r="G266" t="s">
         <v>207</v>
       </c>
-      <c r="G266" t="s">
-        <v>208</v>
-      </c>
       <c r="I266" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="268" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F268" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G268" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I268" t="s">
         <v>19</v>
@@ -3201,69 +3201,69 @@
     </row>
     <row r="269" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F269" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G269" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="270" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F270" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G270" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="271" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F271" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G271" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="272" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F272" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G272" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="273" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F273" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="274" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F274" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G274" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="275" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F275" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C277" t="s">
+        <v>229</v>
+      </c>
+      <c r="F277" t="s">
         <v>230</v>
       </c>
-      <c r="F277" t="s">
-        <v>231</v>
-      </c>
       <c r="G277" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I277" t="s">
         <v>20</v>
@@ -3277,13 +3277,13 @@
     </row>
     <row r="279" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F279" t="s">
+        <v>231</v>
+      </c>
+      <c r="G279" t="s">
         <v>232</v>
       </c>
-      <c r="G279" t="s">
-        <v>233</v>
-      </c>
       <c r="I279" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N279" t="s">
         <v>25</v>
@@ -3294,30 +3294,30 @@
     </row>
     <row r="281" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F281" t="s">
+        <v>233</v>
+      </c>
+      <c r="G281" t="s">
         <v>234</v>
       </c>
-      <c r="G281" t="s">
+      <c r="I281" t="s">
         <v>235</v>
-      </c>
-      <c r="I281" t="s">
-        <v>236</v>
       </c>
       <c r="N281" t="s">
         <v>29</v>
       </c>
       <c r="Q281" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="283" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C283" t="s">
+        <v>237</v>
+      </c>
+      <c r="F283" t="s">
         <v>238</v>
       </c>
-      <c r="F283" t="s">
-        <v>239</v>
-      </c>
       <c r="I283" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N283" t="s">
         <v>25</v>
@@ -3328,13 +3328,13 @@
     </row>
     <row r="285" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F285" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G285" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I285" t="s">
         <v>20</v>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="287" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F287" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G287" t="s">
+        <v>240</v>
+      </c>
+      <c r="I287" t="s">
         <v>241</v>
-      </c>
-      <c r="I287" t="s">
-        <v>242</v>
       </c>
       <c r="N287" t="s">
         <v>25</v>
@@ -3365,13 +3365,13 @@
     </row>
     <row r="289" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F289" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G289" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I289" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N289" t="s">
         <v>25</v>
@@ -3382,13 +3382,13 @@
     </row>
     <row r="291" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C291" t="s">
+        <v>244</v>
+      </c>
+      <c r="F291" t="s">
         <v>245</v>
       </c>
-      <c r="F291" t="s">
-        <v>246</v>
-      </c>
       <c r="G291" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I291" t="s">
         <v>20</v>
@@ -3402,23 +3402,23 @@
     </row>
     <row r="292" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F292" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="293" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F293" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="295" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F295" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G295" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I295" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N295" t="s">
         <v>25</v>
@@ -3429,50 +3429,50 @@
     </row>
     <row r="296" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F296" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="297" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F297" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="299" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F299" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G299" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I299" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N299" t="s">
         <v>29</v>
       </c>
       <c r="Q299" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="300" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F300" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="301" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F301" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="303" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C303" t="s">
+        <v>250</v>
+      </c>
+      <c r="F303" t="s">
         <v>251</v>
       </c>
-      <c r="F303" t="s">
-        <v>252</v>
-      </c>
       <c r="I303" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N303" t="s">
         <v>25</v>
@@ -3483,13 +3483,13 @@
     </row>
     <row r="305" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C305" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F305" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G305" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I305" t="s">
         <v>20</v>
@@ -3503,23 +3503,23 @@
     </row>
     <row r="306" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F306" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="307" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F307" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="309" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F309" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G309" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I309" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N309" t="s">
         <v>25</v>
@@ -3530,23 +3530,23 @@
     </row>
     <row r="310" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F310" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="311" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F311" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="313" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F313" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G313" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I313" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N313" t="s">
         <v>25</v>
@@ -3557,12 +3557,12 @@
     </row>
     <row r="314" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F314" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="315" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F315" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/TestLog/Testlog.xlsx
+++ b/TestLog/Testlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="345">
   <si>
     <t xml:space="preserve">TestLog </t>
   </si>
@@ -407,15 +407,9 @@
     <t>Search successfull class name</t>
   </si>
   <si>
-    <t>of Student</t>
-  </si>
-  <si>
     <t>Click upload Feedback</t>
   </si>
   <si>
-    <t xml:space="preserve">Take feedback </t>
-  </si>
-  <si>
     <t>Input text</t>
   </si>
   <si>
@@ -500,15 +494,9 @@
     <t>Click Upload Claim in Profile</t>
   </si>
   <si>
-    <t>Subject "blank"</t>
-  </si>
-  <si>
     <t>Body "blank"</t>
   </si>
   <si>
-    <t xml:space="preserve">Input Subject: !@#$%^&amp;* </t>
-  </si>
-  <si>
     <t>Error message: Do not enter these characters</t>
   </si>
   <si>
@@ -518,9 +506,6 @@
     <t>Error message: Do not enter more than 500 characters</t>
   </si>
   <si>
-    <t>Input Subject: Interaction Design</t>
-  </si>
-  <si>
     <t>Upload successful</t>
   </si>
   <si>
@@ -530,9 +515,6 @@
     <t>to take a break from studying this subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Input Subject: Enterprise Web Software </t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
@@ -839,15 +821,9 @@
     <t>Button upload hidden</t>
   </si>
   <si>
-    <t>11. Take Feedback in Profile</t>
-  </si>
-  <si>
     <t>12. Coordinator handling Claim</t>
   </si>
   <si>
-    <t>15. View Class as Teacher</t>
-  </si>
-  <si>
     <t>16. Search</t>
   </si>
   <si>
@@ -872,9 +848,6 @@
     <t>and Upload CourseWork</t>
   </si>
   <si>
-    <t>13. View Class as Student</t>
-  </si>
-  <si>
     <t>Click on view chart</t>
   </si>
   <si>
@@ -903,6 +876,189 @@
   </si>
   <si>
     <t>Send the answer letter to the email of the student successfully</t>
+  </si>
+  <si>
+    <t>for Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Tiltle !@#$%^&amp;* </t>
+  </si>
+  <si>
+    <t>Titlte "blank"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Tiltle: The title 1 of claim </t>
+  </si>
+  <si>
+    <t>Input Title: title 2 of claim</t>
+  </si>
+  <si>
+    <t>11. Send Feedback in Profile</t>
+  </si>
+  <si>
+    <t>of Student to Teacher</t>
+  </si>
+  <si>
+    <t>19. Student view all the claims</t>
+  </si>
+  <si>
+    <t>that sent before</t>
+  </si>
+  <si>
+    <t>Click on View Claim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Coordinator view all the </t>
+  </si>
+  <si>
+    <t>Click on checkbox Claim has responsed</t>
+  </si>
+  <si>
+    <t>claims</t>
+  </si>
+  <si>
+    <t>Click on checkbox Claim not answered</t>
+  </si>
+  <si>
+    <t>Click on checkbox Claim overdue 14 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. Student view all the </t>
+  </si>
+  <si>
+    <t>feedback that they sent before</t>
+  </si>
+  <si>
+    <t>Click on View Feeback</t>
+  </si>
+  <si>
+    <t>13. Student View Subject</t>
+  </si>
+  <si>
+    <t>Click to view categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load categories pages anh display </t>
+  </si>
+  <si>
+    <t>15. Teacher view Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22. Teacher view all the </t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>Click on View Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve the claim </t>
+  </si>
+  <si>
+    <t>Click on login mail</t>
+  </si>
+  <si>
+    <t>Get notification from mail when show student just send the claim</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>Click on view Claim</t>
+  </si>
+  <si>
+    <t>Click on view Claim has responsed</t>
+  </si>
+  <si>
+    <t>Click on view Claim not answered</t>
+  </si>
+  <si>
+    <t>Click on view Claim overdue 14days</t>
+  </si>
+  <si>
+    <t>12.Coordinator view Claim</t>
+  </si>
+  <si>
+    <t>23. Coordinator progress</t>
+  </si>
+  <si>
+    <t>the Claim</t>
+  </si>
+  <si>
+    <t>Click on reject button</t>
+  </si>
+  <si>
+    <t>Input title:: "blank"</t>
+  </si>
+  <si>
+    <t>Input body: "blank"</t>
+  </si>
+  <si>
+    <t>Error message: Please fill out this field</t>
+  </si>
+  <si>
+    <t>Input: "tiltle of claim"</t>
+  </si>
+  <si>
+    <t>Input: "content of claim"</t>
+  </si>
+  <si>
+    <t>Click on send letter button</t>
+  </si>
+  <si>
+    <t>Click on File</t>
+  </si>
+  <si>
+    <t>Show file of evidence sucessfully</t>
+  </si>
+  <si>
+    <t>View Claim list successfully</t>
+  </si>
+  <si>
+    <t>24. Manager view Chart</t>
+  </si>
+  <si>
+    <t>Click on View chart</t>
+  </si>
+  <si>
+    <t>Click on Claim has responsed</t>
+  </si>
+  <si>
+    <t>Show chart successfully</t>
+  </si>
+  <si>
+    <t>Show report successfully</t>
+  </si>
+  <si>
+    <t>Click on Number of student send claim</t>
+  </si>
+  <si>
+    <t>Click on Report claim without evidence</t>
+  </si>
+  <si>
+    <t>Click on Claim over 14days</t>
+  </si>
+  <si>
+    <t>25. Manager view Claim</t>
+  </si>
+  <si>
+    <t>Show List of Claim successfully</t>
+  </si>
+  <si>
+    <t>25.Manager view information</t>
+  </si>
+  <si>
+    <t>of table Semester, Class, Subject</t>
+  </si>
+  <si>
+    <t>Account, Student learn in Subject</t>
+  </si>
+  <si>
+    <t>Click on view all</t>
+  </si>
+  <si>
+    <t>Show the table sucessfully</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q399"/>
+  <dimension ref="A1:Q478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J244" sqref="J244"/>
+    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M485" sqref="M485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1466,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1440,7 +1596,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -1578,16 +1734,16 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
         <v>35</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s">
         <v>65</v>
@@ -1601,13 +1757,13 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -1617,10 +1773,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N41" t="s">
         <v>23</v>
@@ -1636,10 +1792,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N44" t="s">
         <v>23</v>
@@ -1650,7 +1806,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -1658,7 +1814,7 @@
         <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N47" t="s">
         <v>23</v>
@@ -1674,10 +1830,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N50" t="s">
         <v>23</v>
@@ -1696,7 +1852,7 @@
         <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N53" t="s">
         <v>23</v>
@@ -1740,7 +1896,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -1757,10 +1913,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" t="s">
         <v>154</v>
-      </c>
-      <c r="I61" t="s">
-        <v>156</v>
       </c>
       <c r="N61" t="s">
         <v>23</v>
@@ -1774,17 +1930,17 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F63" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F64" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.2">
@@ -1803,22 +1959,22 @@
     </row>
     <row r="67" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I71" t="s">
         <v>18</v>
@@ -1837,17 +1993,17 @@
     </row>
     <row r="73" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I76" t="s">
         <v>18</v>
@@ -1871,12 +2027,12 @@
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I81" t="s">
         <v>18</v>
@@ -1890,12 +2046,12 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -1924,7 +2080,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F88" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -1934,7 +2090,7 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -1948,7 +2104,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -1968,7 +2124,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -2053,7 +2209,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C105" t="s">
         <v>32</v>
@@ -2067,16 +2223,16 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C106" t="s">
         <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I106" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N106" t="s">
         <v>23</v>
@@ -2097,7 +2253,7 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F110" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N110" t="s">
         <v>23</v>
@@ -2196,7 +2352,7 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -2210,7 +2366,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
@@ -2230,7 +2386,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -2315,7 +2471,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C138" t="s">
         <v>32</v>
@@ -2329,16 +2485,16 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C139" t="s">
         <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I139" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N139" t="s">
         <v>23</v>
@@ -2359,7 +2515,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N143" t="s">
         <v>23</v>
@@ -2383,7 +2539,7 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F147" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N147" t="s">
         <v>23</v>
@@ -2458,13 +2614,13 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C158" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F158" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="I158" t="s">
         <v>18</v>
@@ -2481,7 +2637,7 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F159" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I159" t="s">
         <v>18</v>
@@ -2495,10 +2651,10 @@
     </row>
     <row r="161" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F161" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="I161" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N161" t="s">
         <v>27</v>
@@ -2509,10 +2665,10 @@
     </row>
     <row r="162" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F162" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I162" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N162" t="s">
         <v>27</v>
@@ -2523,10 +2679,10 @@
     </row>
     <row r="165" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F165" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="I165" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N165" t="s">
         <v>23</v>
@@ -2537,20 +2693,20 @@
     </row>
     <row r="166" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F166" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F167" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F169" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="I169" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N169" t="s">
         <v>23</v>
@@ -2561,30 +2717,33 @@
     </row>
     <row r="170" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F170" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F171" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F173" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>256</v>
+      </c>
+      <c r="I174" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F175" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I175" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N175" t="s">
         <v>23</v>
@@ -2594,12 +2753,6 @@
       </c>
     </row>
     <row r="176" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F176" t="s">
-        <v>263</v>
-      </c>
-      <c r="I176" t="s">
-        <v>165</v>
-      </c>
       <c r="N176" t="s">
         <v>23</v>
       </c>
@@ -2609,10 +2762,10 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I178" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="N178" t="s">
         <v>23</v>
@@ -2623,16 +2776,16 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C180" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F180" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J180" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N180" t="s">
         <v>23</v>
@@ -2643,15 +2796,15 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F181" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F183" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J183" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N183" t="s">
         <v>23</v>
@@ -2662,15 +2815,15 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F184" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F186" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J186" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N186" t="s">
         <v>23</v>
@@ -2681,15 +2834,15 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F187" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C189" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I189" t="s">
         <v>61</v>
@@ -2706,23 +2859,23 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="F191" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F192" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I192" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N192" t="s">
         <v>23</v>
@@ -2733,23 +2886,23 @@
     </row>
     <row r="193" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F193" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F194" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="196" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F196" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I196" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N196" t="s">
         <v>23</v>
@@ -2760,23 +2913,23 @@
     </row>
     <row r="197" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F197" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I197" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="198" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F198" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="200" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F200" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I200" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N200" t="s">
         <v>23</v>
@@ -2787,23 +2940,23 @@
     </row>
     <row r="201" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I201" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="202" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F202" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="204" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F204" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I204" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N204" t="s">
         <v>23</v>
@@ -2814,23 +2967,23 @@
     </row>
     <row r="205" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F205" t="s">
+        <v>131</v>
+      </c>
+      <c r="I205" t="s">
         <v>133</v>
-      </c>
-      <c r="I205" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="206" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F206" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F208" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I208" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N208" t="s">
         <v>23</v>
@@ -2838,23 +2991,23 @@
     </row>
     <row r="209" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F209" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I209" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F210" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="212" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F212" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I212" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N212" t="s">
         <v>23</v>
@@ -2865,23 +3018,23 @@
     </row>
     <row r="213" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F213" t="s">
+        <v>131</v>
+      </c>
+      <c r="I213" t="s">
         <v>133</v>
-      </c>
-      <c r="I213" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="214" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F214" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F216" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I216" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N216" t="s">
         <v>23</v>
@@ -2892,23 +3045,23 @@
     </row>
     <row r="217" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F217" t="s">
+        <v>131</v>
+      </c>
+      <c r="I217" t="s">
         <v>133</v>
-      </c>
-      <c r="I217" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="218" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F218" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="220" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F220" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I220" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N220" t="s">
         <v>23</v>
@@ -2919,23 +3072,23 @@
     </row>
     <row r="221" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F221" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I221" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="222" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F222" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="224" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F224" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I224" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N224" t="s">
         <v>23</v>
@@ -2944,145 +3097,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F225" t="s">
+        <v>131</v>
+      </c>
+      <c r="I225" t="s">
         <v>133</v>
       </c>
-      <c r="I225" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F226" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>272</v>
-      </c>
-      <c r="C227" t="s">
-        <v>174</v>
-      </c>
-      <c r="F227" t="s">
-        <v>175</v>
-      </c>
-      <c r="I227" t="s">
-        <v>176</v>
-      </c>
-      <c r="N227" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C228" t="s">
-        <v>173</v>
-      </c>
-      <c r="F228" t="s">
-        <v>177</v>
-      </c>
-      <c r="I228" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C229" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F231" t="s">
-        <v>179</v>
-      </c>
-      <c r="I231" t="s">
-        <v>176</v>
-      </c>
-      <c r="N231" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F232" t="s">
-        <v>169</v>
-      </c>
-      <c r="I232" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F233" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C235" t="s">
-        <v>173</v>
-      </c>
-      <c r="F235" t="s">
-        <v>183</v>
-      </c>
-      <c r="I235" t="s">
-        <v>181</v>
-      </c>
-      <c r="N235" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F236" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C237" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C238" t="s">
-        <v>277</v>
-      </c>
-      <c r="F238" t="s">
-        <v>278</v>
-      </c>
-      <c r="I238" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C239" t="s">
-        <v>173</v>
-      </c>
-      <c r="F239" t="s">
-        <v>279</v>
-      </c>
-      <c r="I239" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C240" t="s">
-        <v>280</v>
+        <v>137</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C242" t="s">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="I242" t="s">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="L242" t="s">
         <v>19</v>
@@ -3096,10 +3132,7 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>281</v>
-      </c>
-      <c r="C243" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="I243" t="s">
         <v>48</v>
@@ -3113,10 +3146,10 @@
         <v>51</v>
       </c>
       <c r="N245" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q245" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
@@ -3206,7 +3239,7 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="C258" t="s">
         <v>46</v>
@@ -3226,7 +3259,7 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C259" t="s">
         <v>47</v>
@@ -3605,7 +3638,7 @@
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C312" t="s">
         <v>57</v>
@@ -3645,16 +3678,16 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C316" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F316" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G316" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I316" t="s">
         <v>18</v>
@@ -3668,10 +3701,10 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F317" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G317" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I317" t="s">
         <v>18</v>
@@ -3679,10 +3712,10 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F318" t="s">
+        <v>182</v>
+      </c>
+      <c r="G318" t="s">
         <v>188</v>
-      </c>
-      <c r="G318" t="s">
-        <v>194</v>
       </c>
       <c r="I318" t="s">
         <v>18</v>
@@ -3690,10 +3723,10 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F319" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G319" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I319" t="s">
         <v>18</v>
@@ -3701,10 +3734,10 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F320" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G320" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I320" t="s">
         <v>18</v>
@@ -3712,10 +3745,10 @@
     </row>
     <row r="321" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F321" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G321" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I321" t="s">
         <v>18</v>
@@ -3723,10 +3756,10 @@
     </row>
     <row r="322" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F322" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G322" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I322" t="s">
         <v>18</v>
@@ -3734,10 +3767,10 @@
     </row>
     <row r="323" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F323" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G323" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I323" t="s">
         <v>18</v>
@@ -3745,10 +3778,10 @@
     </row>
     <row r="325" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F325" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G325" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I325" t="s">
         <v>17</v>
@@ -3762,71 +3795,71 @@
     </row>
     <row r="326" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F326" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G326" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="327" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F327" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G327" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="328" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F328" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G328" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="329" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F329" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G329" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="330" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F330" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="331" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F331" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G331" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="332" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F332" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="334" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C334" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="335" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F335" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I335" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="N335" t="s">
         <v>23</v>
@@ -3837,13 +3870,13 @@
     </row>
     <row r="337" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C337" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F337" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G337" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I337" t="s">
         <v>18</v>
@@ -3857,10 +3890,10 @@
     </row>
     <row r="338" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F338" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G338" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I338" t="s">
         <v>18</v>
@@ -3868,10 +3901,10 @@
     </row>
     <row r="339" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F339" t="s">
+        <v>182</v>
+      </c>
+      <c r="G339" t="s">
         <v>188</v>
-      </c>
-      <c r="G339" t="s">
-        <v>194</v>
       </c>
       <c r="I339" t="s">
         <v>18</v>
@@ -3879,10 +3912,10 @@
     </row>
     <row r="340" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F340" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G340" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I340" t="s">
         <v>18</v>
@@ -3890,10 +3923,10 @@
     </row>
     <row r="341" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F341" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G341" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I341" t="s">
         <v>18</v>
@@ -3901,10 +3934,10 @@
     </row>
     <row r="342" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F342" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G342" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I342" t="s">
         <v>18</v>
@@ -3912,10 +3945,10 @@
     </row>
     <row r="343" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F343" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G343" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I343" t="s">
         <v>18</v>
@@ -3923,21 +3956,21 @@
     </row>
     <row r="344" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F344" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G344" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I344" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="346" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F346" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G346" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I346" t="s">
         <v>17</v>
@@ -3951,69 +3984,69 @@
     </row>
     <row r="347" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F347" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G347" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="348" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F348" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G348" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="349" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F349" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G349" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="350" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F350" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G350" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="351" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F351" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="352" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F352" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G352" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="353" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F353" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G353" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="355" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C355" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F355" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G355" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I355" t="s">
         <v>18</v>
@@ -4027,13 +4060,13 @@
     </row>
     <row r="357" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F357" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G357" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I357" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N357" t="s">
         <v>23</v>
@@ -4044,30 +4077,30 @@
     </row>
     <row r="359" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F359" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G359" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I359" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N359" t="s">
         <v>27</v>
       </c>
       <c r="Q359" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="361" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C361" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F361" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I361" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="N361" t="s">
         <v>23</v>
@@ -4078,13 +4111,13 @@
     </row>
     <row r="363" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C363" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F363" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G363" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I363" t="s">
         <v>18</v>
@@ -4098,13 +4131,13 @@
     </row>
     <row r="365" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F365" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G365" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I365" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="N365" t="s">
         <v>23</v>
@@ -4115,13 +4148,13 @@
     </row>
     <row r="367" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F367" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G367" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I367" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N367" t="s">
         <v>23</v>
@@ -4132,13 +4165,13 @@
     </row>
     <row r="369" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C369" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F369" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G369" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I369" t="s">
         <v>18</v>
@@ -4152,23 +4185,23 @@
     </row>
     <row r="370" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F370" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="371" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F371" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="373" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F373" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G373" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I373" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N373" t="s">
         <v>23</v>
@@ -4179,50 +4212,50 @@
     </row>
     <row r="374" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F374" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="375" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F375" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="377" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F377" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G377" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I377" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N377" t="s">
         <v>27</v>
       </c>
       <c r="Q377" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="378" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F378" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="379" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F379" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="381" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C381" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F381" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I381" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="N381" t="s">
         <v>23</v>
@@ -4233,13 +4266,13 @@
     </row>
     <row r="383" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C383" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F383" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G383" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I383" t="s">
         <v>18</v>
@@ -4253,23 +4286,23 @@
     </row>
     <row r="384" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F384" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F385" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F387" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G387" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I387" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N387" t="s">
         <v>23</v>
@@ -4280,23 +4313,23 @@
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F388" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F389" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F391" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G391" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I391" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N391" t="s">
         <v>23</v>
@@ -4307,23 +4340,23 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F392" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F393" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C395" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I395" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N395" t="s">
         <v>23</v>
@@ -4334,10 +4367,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C397" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="I397" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N397" t="s">
         <v>23</v>
@@ -4348,16 +4381,587 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C399" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="I399" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N399" t="s">
         <v>23</v>
       </c>
       <c r="Q399" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>291</v>
+      </c>
+      <c r="C401" t="s">
+        <v>293</v>
+      </c>
+      <c r="I401" t="s">
+        <v>275</v>
+      </c>
+      <c r="N401" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>294</v>
+      </c>
+      <c r="C404" t="s">
+        <v>293</v>
+      </c>
+      <c r="I404" t="s">
+        <v>275</v>
+      </c>
+      <c r="N404" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>296</v>
+      </c>
+      <c r="C405" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C407" t="s">
+        <v>293</v>
+      </c>
+      <c r="I407" t="s">
+        <v>275</v>
+      </c>
+      <c r="N407" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C408" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C410" t="s">
+        <v>293</v>
+      </c>
+      <c r="I410" t="s">
+        <v>275</v>
+      </c>
+      <c r="N410" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C411" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>299</v>
+      </c>
+      <c r="C413" t="s">
+        <v>301</v>
+      </c>
+      <c r="I413" t="s">
+        <v>275</v>
+      </c>
+      <c r="N413" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>306</v>
+      </c>
+      <c r="C416" t="s">
+        <v>308</v>
+      </c>
+      <c r="I416" t="s">
+        <v>275</v>
+      </c>
+      <c r="N416" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>265</v>
+      </c>
+      <c r="C419" t="s">
+        <v>168</v>
+      </c>
+      <c r="F419" t="s">
+        <v>169</v>
+      </c>
+      <c r="I419" t="s">
+        <v>309</v>
+      </c>
+      <c r="N419" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C420" t="s">
+        <v>167</v>
+      </c>
+      <c r="F420" t="s">
+        <v>171</v>
+      </c>
+      <c r="I420" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C421" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F423" t="s">
+        <v>173</v>
+      </c>
+      <c r="I423" t="s">
+        <v>170</v>
+      </c>
+      <c r="N423" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F424" t="s">
+        <v>163</v>
+      </c>
+      <c r="I424" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F425" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C427" t="s">
+        <v>167</v>
+      </c>
+      <c r="F427" t="s">
+        <v>177</v>
+      </c>
+      <c r="I427" t="s">
+        <v>175</v>
+      </c>
+      <c r="N427" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F428" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C429" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C430" t="s">
+        <v>269</v>
+      </c>
+      <c r="F430" t="s">
+        <v>270</v>
+      </c>
+      <c r="I430" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C431" t="s">
+        <v>167</v>
+      </c>
+      <c r="F431" t="s">
+        <v>271</v>
+      </c>
+      <c r="I431" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C432" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>317</v>
+      </c>
+      <c r="C434" t="s">
+        <v>310</v>
+      </c>
+      <c r="I434" t="s">
+        <v>311</v>
+      </c>
+      <c r="N434" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I435" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C437" t="s">
+        <v>313</v>
+      </c>
+      <c r="I437" t="s">
+        <v>329</v>
+      </c>
+      <c r="N437" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C438" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C440" t="s">
+        <v>313</v>
+      </c>
+      <c r="I440" t="s">
+        <v>329</v>
+      </c>
+      <c r="N440" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q440" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C441" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C443" t="s">
+        <v>313</v>
+      </c>
+      <c r="I443" t="s">
+        <v>329</v>
+      </c>
+      <c r="N443" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q443" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C444" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>318</v>
+      </c>
+      <c r="C446" t="s">
+        <v>320</v>
+      </c>
+      <c r="F446" t="s">
+        <v>321</v>
+      </c>
+      <c r="I446" t="s">
+        <v>323</v>
+      </c>
+      <c r="N446" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q446" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>319</v>
+      </c>
+      <c r="F447" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F449" t="s">
+        <v>324</v>
+      </c>
+      <c r="I449" t="s">
+        <v>283</v>
+      </c>
+      <c r="N449" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q449" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F450" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C452" t="s">
+        <v>326</v>
+      </c>
+      <c r="F452" t="s">
+        <v>321</v>
+      </c>
+      <c r="I452" t="s">
+        <v>323</v>
+      </c>
+      <c r="N452" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q452" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F453" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F455" t="s">
+        <v>324</v>
+      </c>
+      <c r="I455" t="s">
+        <v>283</v>
+      </c>
+      <c r="N455" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q455" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F456" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C458" t="s">
+        <v>327</v>
+      </c>
+      <c r="I458" t="s">
+        <v>328</v>
+      </c>
+      <c r="N458" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q458" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>330</v>
+      </c>
+      <c r="C460" t="s">
+        <v>331</v>
+      </c>
+      <c r="I460" t="s">
+        <v>333</v>
+      </c>
+      <c r="N460" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q460" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C461" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C463" t="s">
+        <v>331</v>
+      </c>
+      <c r="I463" t="s">
+        <v>333</v>
+      </c>
+      <c r="N463" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C464" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C466" t="s">
+        <v>331</v>
+      </c>
+      <c r="I466" t="s">
+        <v>333</v>
+      </c>
+      <c r="N466" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q466" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C467" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C469" t="s">
+        <v>331</v>
+      </c>
+      <c r="I469" t="s">
+        <v>334</v>
+      </c>
+      <c r="N469" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q469" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C470" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C472" t="s">
+        <v>331</v>
+      </c>
+      <c r="I472" t="s">
+        <v>334</v>
+      </c>
+      <c r="N472" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q472" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C473" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>338</v>
+      </c>
+      <c r="C474" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I475" t="s">
+        <v>339</v>
+      </c>
+      <c r="N475" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q475" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>340</v>
+      </c>
+      <c r="C476" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>341</v>
+      </c>
+      <c r="I477" t="s">
+        <v>344</v>
+      </c>
+      <c r="N477" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q477" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/TestLog/Testlog.xlsx
+++ b/TestLog/Testlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="1480" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1424,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q478"/>
+  <dimension ref="A1:Q464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M485" sqref="M485"/>
+    <sheetView tabSelected="1" topLeftCell="A441" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:Q465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3097,7 +3097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F225" t="s">
         <v>131</v>
       </c>
@@ -3105,9 +3105,111 @@
         <v>133</v>
       </c>
     </row>
-    <row r="226" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F226" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>318</v>
+      </c>
+      <c r="C228" t="s">
+        <v>320</v>
+      </c>
+      <c r="F228" t="s">
+        <v>321</v>
+      </c>
+      <c r="I228" t="s">
+        <v>323</v>
+      </c>
+      <c r="N228" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>319</v>
+      </c>
+      <c r="F229" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>324</v>
+      </c>
+      <c r="I231" t="s">
+        <v>283</v>
+      </c>
+      <c r="N231" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C234" t="s">
+        <v>326</v>
+      </c>
+      <c r="F234" t="s">
+        <v>321</v>
+      </c>
+      <c r="I234" t="s">
+        <v>323</v>
+      </c>
+      <c r="N234" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>324</v>
+      </c>
+      <c r="I237" t="s">
+        <v>283</v>
+      </c>
+      <c r="N237" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
+        <v>327</v>
+      </c>
+      <c r="I240" t="s">
+        <v>328</v>
+      </c>
+      <c r="N240" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
@@ -4720,16 +4822,13 @@
     </row>
     <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C446" t="s">
-        <v>320</v>
-      </c>
-      <c r="F446" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="I446" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="N446" t="s">
         <v>23</v>
@@ -4739,19 +4838,16 @@
       </c>
     </row>
     <row r="447" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>319</v>
-      </c>
-      <c r="F447" t="s">
-        <v>322</v>
+      <c r="C447" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="449" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F449" t="s">
-        <v>324</v>
+      <c r="C449" t="s">
+        <v>331</v>
       </c>
       <c r="I449" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="N449" t="s">
         <v>23</v>
@@ -4761,19 +4857,16 @@
       </c>
     </row>
     <row r="450" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F450" t="s">
-        <v>325</v>
+      <c r="C450" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="452" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C452" t="s">
-        <v>326</v>
-      </c>
-      <c r="F452" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="I452" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="N452" t="s">
         <v>23</v>
@@ -4783,16 +4876,16 @@
       </c>
     </row>
     <row r="453" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F453" t="s">
-        <v>322</v>
+      <c r="C453" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="455" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F455" t="s">
-        <v>324</v>
+      <c r="C455" t="s">
+        <v>331</v>
       </c>
       <c r="I455" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="N455" t="s">
         <v>23</v>
@@ -4802,52 +4895,62 @@
       </c>
     </row>
     <row r="456" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F456" t="s">
-        <v>325</v>
+      <c r="C456" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="458" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C458" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I458" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N458" t="s">
         <v>23</v>
       </c>
       <c r="Q458" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C459" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="460" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C460" t="s">
-        <v>331</v>
-      </c>
-      <c r="I460" t="s">
-        <v>333</v>
-      </c>
-      <c r="N460" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q460" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
     </row>
     <row r="461" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C461" t="s">
-        <v>332</v>
+      <c r="I461" t="s">
+        <v>339</v>
+      </c>
+      <c r="N461" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q461" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>340</v>
+      </c>
+      <c r="C462" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="463" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C463" t="s">
-        <v>331</v>
+      <c r="A463" t="s">
+        <v>341</v>
       </c>
       <c r="I463" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="N463" t="s">
         <v>23</v>
@@ -4857,110 +4960,7 @@
       </c>
     </row>
     <row r="464" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C464" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C466" t="s">
-        <v>331</v>
-      </c>
-      <c r="I466" t="s">
-        <v>333</v>
-      </c>
-      <c r="N466" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q466" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C467" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C469" t="s">
-        <v>331</v>
-      </c>
-      <c r="I469" t="s">
-        <v>334</v>
-      </c>
-      <c r="N469" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q469" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C470" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C472" t="s">
-        <v>331</v>
-      </c>
-      <c r="I472" t="s">
-        <v>334</v>
-      </c>
-      <c r="N472" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q472" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C473" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
-        <v>338</v>
-      </c>
-      <c r="C474" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I475" t="s">
-        <v>339</v>
-      </c>
-      <c r="N475" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q475" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
-        <v>340</v>
-      </c>
-      <c r="C476" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
-        <v>341</v>
-      </c>
-      <c r="I477" t="s">
-        <v>344</v>
-      </c>
-      <c r="N477" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q477" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
+      <c r="A464" t="s">
         <v>342</v>
       </c>
     </row>
